--- a/DEBUG_SmartCar_PCB/DEBUG_SmartCar_MotherBoard_V3/引脚分配v1.3.xlsx
+++ b/DEBUG_SmartCar_PCB/DEBUG_SmartCar_MotherBoard_V3/引脚分配v1.3.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\LCEDA_Project\DEBUG_SmartCar_MotherBoard_V3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27DDB61E-4817-4394-8F66-1E9B6939F783}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ACFF8C6E-A5D8-4384-A129-9D60808B3E13}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="120">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="128">
   <si>
     <t xml:space="preserve"> 总钻风摄像头</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -497,6 +497,38 @@
   </si>
   <si>
     <t>TX(UART8)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>C11</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>C6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>C12</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>B15</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DLB</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SCL</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SDA</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>XS</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -840,17 +872,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E66"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="N16" sqref="N16"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="C59" sqref="C59"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="17.6640625" customWidth="1"/>
-    <col min="2" max="2" width="10.44140625" customWidth="1"/>
+    <col min="1" max="1" width="17.625" customWidth="1"/>
+    <col min="2" max="2" width="10.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -864,7 +896,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="4"/>
       <c r="B2" t="s">
         <v>2</v>
@@ -873,7 +905,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="4"/>
       <c r="B3" s="1" t="s">
         <v>3</v>
@@ -882,7 +914,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" s="4"/>
       <c r="B4" t="s">
         <v>4</v>
@@ -891,7 +923,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="4"/>
       <c r="B5" t="s">
         <v>5</v>
@@ -900,7 +932,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" s="4" t="s">
         <v>55</v>
       </c>
@@ -915,7 +947,7 @@
       </c>
       <c r="E6" s="4"/>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" s="4"/>
       <c r="B7" t="s">
         <v>13</v>
@@ -925,7 +957,7 @@
       </c>
       <c r="E7" s="4"/>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" s="4" t="s">
         <v>56</v>
       </c>
@@ -940,7 +972,7 @@
       </c>
       <c r="E8" s="4"/>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" s="4"/>
       <c r="B9" t="s">
         <v>13</v>
@@ -950,7 +982,7 @@
       </c>
       <c r="E9" s="4"/>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" s="4" t="s">
         <v>57</v>
       </c>
@@ -965,7 +997,7 @@
       </c>
       <c r="E10" s="4"/>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" s="4"/>
       <c r="B11" t="s">
         <v>13</v>
@@ -975,7 +1007,7 @@
       </c>
       <c r="E11" s="4"/>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" s="4" t="s">
         <v>58</v>
       </c>
@@ -990,7 +1022,7 @@
       </c>
       <c r="E12" s="4"/>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" s="4"/>
       <c r="B13" t="s">
         <v>13</v>
@@ -1000,7 +1032,7 @@
       </c>
       <c r="E13" s="4"/>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" s="4" t="s">
         <v>106</v>
       </c>
@@ -1015,7 +1047,7 @@
       </c>
       <c r="E14" s="4"/>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15" s="4"/>
       <c r="B15" t="s">
         <v>26</v>
@@ -1025,7 +1057,7 @@
       </c>
       <c r="E15" s="4"/>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16" s="4"/>
       <c r="B16" t="s">
         <v>28</v>
@@ -1035,7 +1067,7 @@
       </c>
       <c r="E16" s="4"/>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17" s="4"/>
       <c r="B17" t="s">
         <v>30</v>
@@ -1045,7 +1077,7 @@
       </c>
       <c r="E17" s="4"/>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A18" s="4"/>
       <c r="B18" t="s">
         <v>32</v>
@@ -1055,7 +1087,7 @@
       </c>
       <c r="E18" s="4"/>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A19" s="4"/>
       <c r="B19" t="s">
         <v>33</v>
@@ -1065,7 +1097,7 @@
       </c>
       <c r="E19" s="4"/>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A20" s="4" t="s">
         <v>72</v>
       </c>
@@ -1080,7 +1112,7 @@
       </c>
       <c r="E20" s="4"/>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A21" s="4"/>
       <c r="B21" t="s">
         <v>26</v>
@@ -1090,7 +1122,7 @@
       </c>
       <c r="E21" s="4"/>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A22" s="4"/>
       <c r="B22" t="s">
         <v>37</v>
@@ -1100,7 +1132,7 @@
       </c>
       <c r="E22" s="4"/>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A23" s="4"/>
       <c r="B23" t="s">
         <v>39</v>
@@ -1110,7 +1142,7 @@
       </c>
       <c r="E23" s="4"/>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A24" s="4"/>
       <c r="B24" t="s">
         <v>30</v>
@@ -1120,7 +1152,7 @@
       </c>
       <c r="E24" s="4"/>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A25" s="4"/>
       <c r="B25" t="s">
         <v>42</v>
@@ -1130,7 +1162,7 @@
       </c>
       <c r="E25" s="4"/>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A26" s="4" t="s">
         <v>47</v>
       </c>
@@ -1138,11 +1170,11 @@
         <v>44</v>
       </c>
       <c r="C26" t="s">
-        <v>62</v>
+        <v>120</v>
       </c>
       <c r="E26" s="4"/>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A27" s="4"/>
       <c r="B27" t="s">
         <v>45</v>
@@ -1152,7 +1184,7 @@
       </c>
       <c r="E27" s="4"/>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A28" s="4" t="s">
         <v>48</v>
       </c>
@@ -1164,7 +1196,7 @@
       </c>
       <c r="E28" s="4"/>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A29" s="4"/>
       <c r="B29" t="s">
         <v>45</v>
@@ -1174,7 +1206,7 @@
       </c>
       <c r="E29" s="4"/>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A30" s="4" t="s">
         <v>49</v>
       </c>
@@ -1186,7 +1218,7 @@
       </c>
       <c r="E30" s="4"/>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A31" s="4"/>
       <c r="B31" t="s">
         <v>45</v>
@@ -1196,7 +1228,7 @@
       </c>
       <c r="E31" s="4"/>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A32" s="4" t="s">
         <v>50</v>
       </c>
@@ -1208,7 +1240,7 @@
       </c>
       <c r="E32" s="4"/>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A33" s="4"/>
       <c r="B33" t="s">
         <v>45</v>
@@ -1218,7 +1250,7 @@
       </c>
       <c r="E33" s="4"/>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A34" s="4" t="s">
         <v>59</v>
       </c>
@@ -1233,7 +1265,7 @@
       </c>
       <c r="E34" s="4"/>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A35" s="4"/>
       <c r="B35" t="s">
         <v>21</v>
@@ -1243,7 +1275,7 @@
       </c>
       <c r="E35" s="4"/>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A36" s="4"/>
       <c r="B36" t="s">
         <v>78</v>
@@ -1253,7 +1285,7 @@
       </c>
       <c r="E36" s="4"/>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A37" s="4" t="s">
         <v>80</v>
       </c>
@@ -1268,7 +1300,7 @@
       </c>
       <c r="E37" s="4"/>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A38" s="4"/>
       <c r="B38" t="s">
         <v>21</v>
@@ -1278,7 +1310,7 @@
       </c>
       <c r="E38" s="2"/>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A39" s="4" t="s">
         <v>81</v>
       </c>
@@ -1290,7 +1322,7 @@
       </c>
       <c r="E39" s="2"/>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A40" s="4"/>
       <c r="B40" t="s">
         <v>21</v>
@@ -1300,7 +1332,7 @@
       </c>
       <c r="E40" s="2"/>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A41" s="4" t="s">
         <v>82</v>
       </c>
@@ -1312,7 +1344,7 @@
       </c>
       <c r="E41" s="2"/>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A42" s="4"/>
       <c r="B42" t="s">
         <v>21</v>
@@ -1322,7 +1354,7 @@
       </c>
       <c r="E42" s="2"/>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A43" s="4" t="s">
         <v>88</v>
       </c>
@@ -1334,7 +1366,7 @@
       </c>
       <c r="E43" s="2"/>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A44" s="4"/>
       <c r="B44" t="s">
         <v>21</v>
@@ -1344,228 +1376,241 @@
       </c>
       <c r="E44" s="2"/>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A45" s="3" t="s">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A45" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="B45" t="s">
+        <v>125</v>
+      </c>
+      <c r="C45" t="s">
+        <v>62</v>
+      </c>
+      <c r="D45" t="s">
+        <v>76</v>
+      </c>
+      <c r="E45" s="2"/>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A46" s="4"/>
+      <c r="B46" t="s">
+        <v>126</v>
+      </c>
+      <c r="C46" t="s">
+        <v>63</v>
+      </c>
+      <c r="E46" s="2"/>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A47" s="4"/>
+      <c r="B47" t="s">
+        <v>127</v>
+      </c>
+      <c r="C47" t="s">
+        <v>104</v>
+      </c>
+      <c r="E47" s="2"/>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A48" s="4"/>
+      <c r="B48" t="s">
+        <v>32</v>
+      </c>
+      <c r="C48" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A49" s="3" t="s">
         <v>94</v>
-      </c>
-      <c r="B45" t="s">
-        <v>45</v>
-      </c>
-      <c r="C45" t="s">
-        <v>52</v>
-      </c>
-      <c r="D45" t="s">
-        <v>107</v>
-      </c>
-      <c r="E45" s="2"/>
-    </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A46" s="3" t="s">
-        <v>95</v>
-      </c>
-      <c r="B46" t="s">
-        <v>45</v>
-      </c>
-      <c r="C46" t="s">
-        <v>53</v>
-      </c>
-      <c r="E46" s="2"/>
-    </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A47" s="3" t="s">
-        <v>96</v>
-      </c>
-      <c r="B47" t="s">
-        <v>45</v>
-      </c>
-      <c r="C47" t="s">
-        <v>92</v>
-      </c>
-      <c r="E47" s="2"/>
-    </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A48" s="3" t="s">
-        <v>97</v>
-      </c>
-      <c r="B48" t="s">
-        <v>45</v>
-      </c>
-      <c r="C48" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A49" s="3" t="s">
-        <v>98</v>
       </c>
       <c r="B49" t="s">
         <v>45</v>
       </c>
       <c r="C49" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+        <v>52</v>
+      </c>
+      <c r="D49" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A50" s="3" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="B50" t="s">
         <v>45</v>
       </c>
       <c r="C50" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A51" s="2" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A51" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="B51" t="s">
+        <v>45</v>
+      </c>
+      <c r="C51" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A52" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="B52" t="s">
+        <v>45</v>
+      </c>
+      <c r="C52" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A53" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="B53" t="s">
+        <v>45</v>
+      </c>
+      <c r="C53" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A54" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="B54" t="s">
+        <v>45</v>
+      </c>
+      <c r="C54" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A55" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="B51" t="s">
+      <c r="B55" t="s">
         <v>70</v>
       </c>
-      <c r="C51" t="s">
+      <c r="C55" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A52" s="2" t="s">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A56" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="B52" t="s">
+      <c r="B56" t="s">
         <v>70</v>
-      </c>
-      <c r="C52" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A53" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="B53" t="s">
-        <v>70</v>
-      </c>
-      <c r="C53" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A54" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="B54" t="s">
-        <v>105</v>
-      </c>
-      <c r="C54" t="s">
-        <v>74</v>
-      </c>
-      <c r="D54" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A55" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="B55" t="s">
-        <v>105</v>
-      </c>
-      <c r="C55" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A56" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="B56" t="s">
-        <v>105</v>
       </c>
       <c r="C56" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A57" s="2" t="s">
-        <v>111</v>
+        <v>102</v>
       </c>
       <c r="B57" t="s">
-        <v>105</v>
+        <v>70</v>
       </c>
       <c r="C57" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A58" s="2" t="s">
-        <v>112</v>
+        <v>71</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A58" s="3" t="s">
+        <v>73</v>
       </c>
       <c r="B58" t="s">
         <v>105</v>
       </c>
       <c r="C58" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
+        <v>74</v>
+      </c>
+      <c r="D58" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A59" s="2" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="B59" t="s">
         <v>105</v>
       </c>
       <c r="C59" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A60" s="2" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="B60" t="s">
         <v>105</v>
       </c>
       <c r="C60" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A61" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="B61" t="s">
+        <v>105</v>
+      </c>
+      <c r="C61" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A62" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="B62" t="s">
+        <v>105</v>
+      </c>
+      <c r="C62" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A63" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="B63" t="s">
+        <v>105</v>
+      </c>
+      <c r="C63" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A64" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="B64" t="s">
+        <v>105</v>
+      </c>
+      <c r="C64" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A61" s="2"/>
-    </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A62" s="2"/>
-    </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A63" s="2"/>
-    </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A64" s="2"/>
-    </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A65" s="2"/>
     </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A66" s="2"/>
     </row>
   </sheetData>
-  <mergeCells count="28">
-    <mergeCell ref="E14:E15"/>
-    <mergeCell ref="A1:A5"/>
-    <mergeCell ref="E6:E7"/>
-    <mergeCell ref="E8:E9"/>
-    <mergeCell ref="E10:E11"/>
-    <mergeCell ref="E12:E13"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="A10:A11"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="E32:E33"/>
-    <mergeCell ref="E34:E35"/>
-    <mergeCell ref="E36:E37"/>
-    <mergeCell ref="E16:E21"/>
-    <mergeCell ref="E22:E27"/>
-    <mergeCell ref="E28:E29"/>
-    <mergeCell ref="E30:E31"/>
+  <mergeCells count="29">
+    <mergeCell ref="A45:A48"/>
     <mergeCell ref="A39:A40"/>
     <mergeCell ref="A41:A42"/>
     <mergeCell ref="A43:A44"/>
@@ -1577,6 +1622,23 @@
     <mergeCell ref="A28:A29"/>
     <mergeCell ref="A30:A31"/>
     <mergeCell ref="A37:A38"/>
+    <mergeCell ref="E32:E33"/>
+    <mergeCell ref="E34:E35"/>
+    <mergeCell ref="E36:E37"/>
+    <mergeCell ref="E16:E21"/>
+    <mergeCell ref="E22:E27"/>
+    <mergeCell ref="E28:E29"/>
+    <mergeCell ref="E30:E31"/>
+    <mergeCell ref="E14:E15"/>
+    <mergeCell ref="A1:A5"/>
+    <mergeCell ref="E6:E7"/>
+    <mergeCell ref="E8:E9"/>
+    <mergeCell ref="E10:E11"/>
+    <mergeCell ref="E12:E13"/>
+    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="A8:A9"/>
+    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="A12:A13"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.75"/>
